--- a/Real/apt_sell_town.xlsx
+++ b/Real/apt_sell_town.xlsx
@@ -14,21 +14,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>size_range</t>
-  </si>
-  <si>
-    <t>20-</t>
-  </si>
-  <si>
-    <t>20-30</t>
-  </si>
-  <si>
-    <t>30-40</t>
-  </si>
-  <si>
-    <t>40+</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>강남구</t>
+  </si>
+  <si>
+    <t>강동구</t>
+  </si>
+  <si>
+    <t>강북구</t>
+  </si>
+  <si>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>관악구</t>
+  </si>
+  <si>
+    <t>광진구</t>
+  </si>
+  <si>
+    <t>구로구</t>
+  </si>
+  <si>
+    <t>금천구</t>
+  </si>
+  <si>
+    <t>노원구</t>
+  </si>
+  <si>
+    <t>도봉구</t>
+  </si>
+  <si>
+    <t>동대문구</t>
+  </si>
+  <si>
+    <t>동작구</t>
+  </si>
+  <si>
+    <t>마포구</t>
+  </si>
+  <si>
+    <t>서대문구</t>
+  </si>
+  <si>
+    <t>서초구</t>
+  </si>
+  <si>
+    <t>성동구</t>
+  </si>
+  <si>
+    <t>성북구</t>
+  </si>
+  <si>
+    <t>송파구</t>
+  </si>
+  <si>
+    <t>양천구</t>
+  </si>
+  <si>
+    <t>영등포구</t>
+  </si>
+  <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>은평구</t>
+  </si>
+  <si>
+    <t>종로구</t>
+  </si>
+  <si>
+    <t>중구</t>
+  </si>
+  <si>
+    <t>중랑구</t>
   </si>
 </sst>
 </file>
@@ -386,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,37 +498,37 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>31698.02908693275</v>
+        <v>88267.94502868068</v>
       </c>
       <c r="C2">
-        <v>30533.72829344477</v>
+        <v>84573.43928847641</v>
       </c>
       <c r="D2">
-        <v>28945.41143963995</v>
+        <v>82577.60408921933</v>
       </c>
       <c r="E2">
-        <v>29436.62230215827</v>
+        <v>83772.9706405694</v>
       </c>
       <c r="F2">
-        <v>30072.65020993195</v>
+        <v>88069.92375765827</v>
       </c>
       <c r="G2">
-        <v>31998.07692468926</v>
+        <v>94114.6377147532</v>
       </c>
       <c r="H2">
-        <v>35884.7372500535</v>
+        <v>107208.0797573247</v>
       </c>
       <c r="I2">
-        <v>40723.49332893669</v>
+        <v>127011.670842511</v>
       </c>
       <c r="J2">
-        <v>43491.85595868137</v>
+        <v>153700.5486348123</v>
       </c>
       <c r="K2">
-        <v>54311.1343273927</v>
+        <v>180082.7689976185</v>
       </c>
       <c r="L2">
-        <v>54797.35922245846</v>
+        <v>175211.906779661</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -473,37 +536,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>50172.73191799355</v>
+        <v>45064.0973702914</v>
       </c>
       <c r="C3">
-        <v>47086.86648940807</v>
+        <v>43404.08662843344</v>
       </c>
       <c r="D3">
-        <v>45246.51560673369</v>
+        <v>43170.99642431466</v>
       </c>
       <c r="E3">
-        <v>44776.43669810377</v>
+        <v>41471.24474517708</v>
       </c>
       <c r="F3">
-        <v>45898.17592290988</v>
+        <v>41454.90293403927</v>
       </c>
       <c r="G3">
-        <v>48588.37284970575</v>
+        <v>45726.79349904398</v>
       </c>
       <c r="H3">
-        <v>53972.39554357666</v>
+        <v>50519.33452138493</v>
       </c>
       <c r="I3">
-        <v>62239.74288825964</v>
+        <v>58085.7487820721</v>
       </c>
       <c r="J3">
-        <v>66393.74125975571</v>
+        <v>65081.13494992092</v>
       </c>
       <c r="K3">
-        <v>86102.8698669383</v>
+        <v>73777.84920828258</v>
       </c>
       <c r="L3">
-        <v>83864.96577096819</v>
+        <v>77293.01316779533</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -511,37 +574,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>77543.9680382072</v>
+        <v>30814.53488372093</v>
       </c>
       <c r="C4">
-        <v>70741.46244296244</v>
+        <v>30603.73370577281</v>
       </c>
       <c r="D4">
-        <v>67855.65982867448</v>
+        <v>29788.92670807453</v>
       </c>
       <c r="E4">
-        <v>67392.29627100124</v>
+        <v>30546.15425531915</v>
       </c>
       <c r="F4">
-        <v>67671.75142073291</v>
+        <v>31829.69321148825</v>
       </c>
       <c r="G4">
-        <v>69303.70030077342</v>
+        <v>32536.23088984712</v>
       </c>
       <c r="H4">
-        <v>74976.71007121057</v>
+        <v>35734.97476828012</v>
       </c>
       <c r="I4">
-        <v>86579.6981746144</v>
+        <v>37190.25339858619</v>
       </c>
       <c r="J4">
-        <v>90766.5414187643</v>
+        <v>42263.48385469223</v>
       </c>
       <c r="K4">
-        <v>116921.1753494282</v>
+        <v>46805.08973438622</v>
       </c>
       <c r="L4">
-        <v>110009.7537446505</v>
+        <v>53562.07460732984</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -549,37 +612,835 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>128857.4792663477</v>
+        <v>34434.11302681993</v>
       </c>
       <c r="C5">
-        <v>121065.4594477998</v>
+        <v>33751.07049782827</v>
       </c>
       <c r="D5">
-        <v>119571.7097264438</v>
+        <v>31814.99519923188</v>
       </c>
       <c r="E5">
-        <v>119327.0861037234</v>
+        <v>32606.98829648895</v>
       </c>
       <c r="F5">
-        <v>122694.4445286834</v>
+        <v>34412.46851698426</v>
       </c>
       <c r="G5">
-        <v>121531.3886389201</v>
+        <v>36173.02593832178</v>
       </c>
       <c r="H5">
-        <v>129914.581451893</v>
+        <v>42350.28374771737</v>
       </c>
       <c r="I5">
-        <v>146262.8606147248</v>
+        <v>46736.98313090418</v>
       </c>
       <c r="J5">
-        <v>154620.8302742388</v>
+        <v>53121.40776511493</v>
       </c>
       <c r="K5">
-        <v>188376.9236040609</v>
+        <v>60349.06648865154</v>
       </c>
       <c r="L5">
-        <v>172704.2428504454</v>
+        <v>63913.64155698684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>34912.30620155039</v>
+      </c>
+      <c r="C6">
+        <v>35456.85807150596</v>
+      </c>
+      <c r="D6">
+        <v>32117.92663242847</v>
+      </c>
+      <c r="E6">
+        <v>32607.31088560885</v>
+      </c>
+      <c r="F6">
+        <v>34632.88596491228</v>
+      </c>
+      <c r="G6">
+        <v>36522.58031354407</v>
+      </c>
+      <c r="H6">
+        <v>38177.06008328376</v>
+      </c>
+      <c r="I6">
+        <v>40701.66398330352</v>
+      </c>
+      <c r="J6">
+        <v>47146.83893557423</v>
+      </c>
+      <c r="K6">
+        <v>53569.41960784313</v>
+      </c>
+      <c r="L6">
+        <v>59440.90156599553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>59638.25254582485</v>
+      </c>
+      <c r="C7">
+        <v>53639.91859389454</v>
+      </c>
+      <c r="D7">
+        <v>54066.69008782936</v>
+      </c>
+      <c r="E7">
+        <v>51592.91653666147</v>
+      </c>
+      <c r="F7">
+        <v>54628.01388117712</v>
+      </c>
+      <c r="G7">
+        <v>56313.12550607287</v>
+      </c>
+      <c r="H7">
+        <v>58992.98737483675</v>
+      </c>
+      <c r="I7">
+        <v>66632.52899457655</v>
+      </c>
+      <c r="J7">
+        <v>80361.5318275154</v>
+      </c>
+      <c r="K7">
+        <v>92646.85680612846</v>
+      </c>
+      <c r="L7">
+        <v>99424.01360544217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>31799.84038054968</v>
+      </c>
+      <c r="C8">
+        <v>32042.01114112086</v>
+      </c>
+      <c r="D8">
+        <v>30305.68780754511</v>
+      </c>
+      <c r="E8">
+        <v>31092.39049285506</v>
+      </c>
+      <c r="F8">
+        <v>32182.63417305586</v>
+      </c>
+      <c r="G8">
+        <v>33598.3378577269</v>
+      </c>
+      <c r="H8">
+        <v>35771.30841286674</v>
+      </c>
+      <c r="I8">
+        <v>39120.01910180858</v>
+      </c>
+      <c r="J8">
+        <v>43347.62606790799</v>
+      </c>
+      <c r="K8">
+        <v>51034.4980124929</v>
+      </c>
+      <c r="L8">
+        <v>53526.95267175572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>26201.88311688312</v>
+      </c>
+      <c r="C9">
+        <v>26394.79096045198</v>
+      </c>
+      <c r="D9">
+        <v>25514.82758620689</v>
+      </c>
+      <c r="E9">
+        <v>24854.17114351497</v>
+      </c>
+      <c r="F9">
+        <v>26043.17659425368</v>
+      </c>
+      <c r="G9">
+        <v>28466.5641025641</v>
+      </c>
+      <c r="H9">
+        <v>31651.14525462963</v>
+      </c>
+      <c r="I9">
+        <v>33427.52991452991</v>
+      </c>
+      <c r="J9">
+        <v>37863.87532133676</v>
+      </c>
+      <c r="K9">
+        <v>43336.34869739479</v>
+      </c>
+      <c r="L9">
+        <v>45375.29611650485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28234.40290620872</v>
+      </c>
+      <c r="C10">
+        <v>27568.32556404997</v>
+      </c>
+      <c r="D10">
+        <v>25179.00372352804</v>
+      </c>
+      <c r="E10">
+        <v>26366.15928315412</v>
+      </c>
+      <c r="F10">
+        <v>27091.26327616795</v>
+      </c>
+      <c r="G10">
+        <v>28689.52180579216</v>
+      </c>
+      <c r="H10">
+        <v>31045.44729162867</v>
+      </c>
+      <c r="I10">
+        <v>34205.24668989547</v>
+      </c>
+      <c r="J10">
+        <v>38803.65666238468</v>
+      </c>
+      <c r="K10">
+        <v>44398.63534246575</v>
+      </c>
+      <c r="L10">
+        <v>48650.978083088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>26902.94135490394</v>
+      </c>
+      <c r="C11">
+        <v>26814.75084301236</v>
+      </c>
+      <c r="D11">
+        <v>25240.77383924114</v>
+      </c>
+      <c r="E11">
+        <v>25929.06609283738</v>
+      </c>
+      <c r="F11">
+        <v>26494.1054909386</v>
+      </c>
+      <c r="G11">
+        <v>27695.72827773468</v>
+      </c>
+      <c r="H11">
+        <v>29802.32230366492</v>
+      </c>
+      <c r="I11">
+        <v>32539.63376874697</v>
+      </c>
+      <c r="J11">
+        <v>35758.01021189686</v>
+      </c>
+      <c r="K11">
+        <v>40622.72367538565</v>
+      </c>
+      <c r="L11">
+        <v>43082.72815533981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>34863.82608695652</v>
+      </c>
+      <c r="C12">
+        <v>34922.49284928493</v>
+      </c>
+      <c r="D12">
+        <v>34312.3740510697</v>
+      </c>
+      <c r="E12">
+        <v>33561.05037895675</v>
+      </c>
+      <c r="F12">
+        <v>34068.54779530093</v>
+      </c>
+      <c r="G12">
+        <v>37649.39620783058</v>
+      </c>
+      <c r="H12">
+        <v>41887.43389830508</v>
+      </c>
+      <c r="I12">
+        <v>45261.1545619023</v>
+      </c>
+      <c r="J12">
+        <v>50875.64320785597</v>
+      </c>
+      <c r="K12">
+        <v>58435.84816563749</v>
+      </c>
+      <c r="L12">
+        <v>65824.04172876304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>47577.0460704607</v>
+      </c>
+      <c r="C13">
+        <v>46837.39006725298</v>
+      </c>
+      <c r="D13">
+        <v>47143.53739612189</v>
+      </c>
+      <c r="E13">
+        <v>48232.02625739645</v>
+      </c>
+      <c r="F13">
+        <v>47159.36886735312</v>
+      </c>
+      <c r="G13">
+        <v>48379.36039090547</v>
+      </c>
+      <c r="H13">
+        <v>56000.20580589255</v>
+      </c>
+      <c r="I13">
+        <v>61685.87075654704</v>
+      </c>
+      <c r="J13">
+        <v>71599.51969083548</v>
+      </c>
+      <c r="K13">
+        <v>85394.37490465294</v>
+      </c>
+      <c r="L13">
+        <v>91255.69871794872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>46073.98597475456</v>
+      </c>
+      <c r="C14">
+        <v>46972.24696132597</v>
+      </c>
+      <c r="D14">
+        <v>53379.01216216217</v>
+      </c>
+      <c r="E14">
+        <v>54823.05115907274</v>
+      </c>
+      <c r="F14">
+        <v>46944.73283528993</v>
+      </c>
+      <c r="G14">
+        <v>52917.73110175128</v>
+      </c>
+      <c r="H14">
+        <v>58822.57338367154</v>
+      </c>
+      <c r="I14">
+        <v>65586.06308526368</v>
+      </c>
+      <c r="J14">
+        <v>78227.07823710283</v>
+      </c>
+      <c r="K14">
+        <v>91820.95331950208</v>
+      </c>
+      <c r="L14">
+        <v>94656.72039677619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>35924.7140077821</v>
+      </c>
+      <c r="C15">
+        <v>34843.42426367461</v>
+      </c>
+      <c r="D15">
+        <v>34654.36889332004</v>
+      </c>
+      <c r="E15">
+        <v>34207.90617433414</v>
+      </c>
+      <c r="F15">
+        <v>35736.66152527849</v>
+      </c>
+      <c r="G15">
+        <v>38146.17690930788</v>
+      </c>
+      <c r="H15">
+        <v>44823.22411798727</v>
+      </c>
+      <c r="I15">
+        <v>49912.80977896852</v>
+      </c>
+      <c r="J15">
+        <v>56296.53768656716</v>
+      </c>
+      <c r="K15">
+        <v>68048.56659056316</v>
+      </c>
+      <c r="L15">
+        <v>73226.49451817657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>90901.92728365384</v>
+      </c>
+      <c r="C16">
+        <v>85620.37384506041</v>
+      </c>
+      <c r="D16">
+        <v>82649.01222104144</v>
+      </c>
+      <c r="E16">
+        <v>84106.30545977011</v>
+      </c>
+      <c r="F16">
+        <v>89133.01817788357</v>
+      </c>
+      <c r="G16">
+        <v>95786.57246508253</v>
+      </c>
+      <c r="H16">
+        <v>107778.6632653061</v>
+      </c>
+      <c r="I16">
+        <v>120576.6814701378</v>
+      </c>
+      <c r="J16">
+        <v>146849.2398321498</v>
+      </c>
+      <c r="K16">
+        <v>165865.2191650854</v>
+      </c>
+      <c r="L16">
+        <v>165513.1219822109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>44957.84962406015</v>
+      </c>
+      <c r="C17">
+        <v>45470.14662756598</v>
+      </c>
+      <c r="D17">
+        <v>48723.24190647482</v>
+      </c>
+      <c r="E17">
+        <v>47154.33259226323</v>
+      </c>
+      <c r="F17">
+        <v>50522.76513538181</v>
+      </c>
+      <c r="G17">
+        <v>52454.06924279652</v>
+      </c>
+      <c r="H17">
+        <v>58172.5305666004</v>
+      </c>
+      <c r="I17">
+        <v>67086.8941810829</v>
+      </c>
+      <c r="J17">
+        <v>82036.84553695955</v>
+      </c>
+      <c r="K17">
+        <v>96636.22970903522</v>
+      </c>
+      <c r="L17">
+        <v>106748.1504567437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>34684.20400728597</v>
+      </c>
+      <c r="C18">
+        <v>36689.32891246684</v>
+      </c>
+      <c r="D18">
+        <v>34142.93607954546</v>
+      </c>
+      <c r="E18">
+        <v>34371.12846347607</v>
+      </c>
+      <c r="F18">
+        <v>36196.09132899433</v>
+      </c>
+      <c r="G18">
+        <v>39245.41662631154</v>
+      </c>
+      <c r="H18">
+        <v>42893.4989412897</v>
+      </c>
+      <c r="I18">
+        <v>44417.13991013072</v>
+      </c>
+      <c r="J18">
+        <v>49750.73496659243</v>
+      </c>
+      <c r="K18">
+        <v>58545.70439589366</v>
+      </c>
+      <c r="L18">
+        <v>65198.5753887762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>70374.19173553718</v>
+      </c>
+      <c r="C19">
+        <v>66350.49904502046</v>
+      </c>
+      <c r="D19">
+        <v>64306.99145299145</v>
+      </c>
+      <c r="E19">
+        <v>63570.71334398721</v>
+      </c>
+      <c r="F19">
+        <v>63390.11032426389</v>
+      </c>
+      <c r="G19">
+        <v>66840.72527910686</v>
+      </c>
+      <c r="H19">
+        <v>74057.80404601348</v>
+      </c>
+      <c r="I19">
+        <v>85090.53917841816</v>
+      </c>
+      <c r="J19">
+        <v>99245.13090593845</v>
+      </c>
+      <c r="K19">
+        <v>120183.0710703787</v>
+      </c>
+      <c r="L19">
+        <v>125370.5763195435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>55061.3785488959</v>
+      </c>
+      <c r="C20">
+        <v>48318.35968992248</v>
+      </c>
+      <c r="D20">
+        <v>46526.63497372193</v>
+      </c>
+      <c r="E20">
+        <v>45034.50474083439</v>
+      </c>
+      <c r="F20">
+        <v>46783.80627557981</v>
+      </c>
+      <c r="G20">
+        <v>48073.04285010671</v>
+      </c>
+      <c r="H20">
+        <v>53586.47627510218</v>
+      </c>
+      <c r="I20">
+        <v>63388.82677651905</v>
+      </c>
+      <c r="J20">
+        <v>65974.94820922443</v>
+      </c>
+      <c r="K20">
+        <v>84655.8850634222</v>
+      </c>
+      <c r="L20">
+        <v>81577.31655691439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>51496.31598062954</v>
+      </c>
+      <c r="C21">
+        <v>45480.08446389496</v>
+      </c>
+      <c r="D21">
+        <v>39083.17733411626</v>
+      </c>
+      <c r="E21">
+        <v>40362.64877692588</v>
+      </c>
+      <c r="F21">
+        <v>41351.04802110818</v>
+      </c>
+      <c r="G21">
+        <v>44218.24487492947</v>
+      </c>
+      <c r="H21">
+        <v>49734.41430412371</v>
+      </c>
+      <c r="I21">
+        <v>56361.50315457413</v>
+      </c>
+      <c r="J21">
+        <v>66666.04784978801</v>
+      </c>
+      <c r="K21">
+        <v>76695.86061179439</v>
+      </c>
+      <c r="L21">
+        <v>85085.36903039074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>75049.49411764706</v>
+      </c>
+      <c r="C22">
+        <v>74934.94110275689</v>
+      </c>
+      <c r="D22">
+        <v>70802.30130293159</v>
+      </c>
+      <c r="E22">
+        <v>66238.95087336244</v>
+      </c>
+      <c r="F22">
+        <v>77198.14183006536</v>
+      </c>
+      <c r="G22">
+        <v>77455.7734375</v>
+      </c>
+      <c r="H22">
+        <v>97188.94258570838</v>
+      </c>
+      <c r="I22">
+        <v>108376.3820907617</v>
+      </c>
+      <c r="J22">
+        <v>132504.8478260869</v>
+      </c>
+      <c r="K22">
+        <v>152255.8520986009</v>
+      </c>
+      <c r="L22">
+        <v>145372.361038961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>42641.90777202073</v>
+      </c>
+      <c r="C23">
+        <v>36872.2060669456</v>
+      </c>
+      <c r="D23">
+        <v>34580.57625899281</v>
+      </c>
+      <c r="E23">
+        <v>34026.37070748862</v>
+      </c>
+      <c r="F23">
+        <v>34446.9182320442</v>
+      </c>
+      <c r="G23">
+        <v>36225.51345701594</v>
+      </c>
+      <c r="H23">
+        <v>40665.52970822281</v>
+      </c>
+      <c r="I23">
+        <v>43267.42811158799</v>
+      </c>
+      <c r="J23">
+        <v>48487.54074955384</v>
+      </c>
+      <c r="K23">
+        <v>52347.70050547599</v>
+      </c>
+      <c r="L23">
+        <v>59647.33406884377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>44487.89473684211</v>
+      </c>
+      <c r="C24">
+        <v>46522.49048625793</v>
+      </c>
+      <c r="D24">
+        <v>51728.91727493917</v>
+      </c>
+      <c r="E24">
+        <v>49730.11731843575</v>
+      </c>
+      <c r="F24">
+        <v>45113.06122448979</v>
+      </c>
+      <c r="G24">
+        <v>48893.82738095238</v>
+      </c>
+      <c r="H24">
+        <v>54604.81061519904</v>
+      </c>
+      <c r="I24">
+        <v>56501.85294117647</v>
+      </c>
+      <c r="J24">
+        <v>61521.16897506925</v>
+      </c>
+      <c r="K24">
+        <v>79645.24509803922</v>
+      </c>
+      <c r="L24">
+        <v>78830.20919540231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>47073.78661087866</v>
+      </c>
+      <c r="C25">
+        <v>45999.86862745098</v>
+      </c>
+      <c r="D25">
+        <v>54301.91789473684</v>
+      </c>
+      <c r="E25">
+        <v>54054.13557358053</v>
+      </c>
+      <c r="F25">
+        <v>50335.09030837005</v>
+      </c>
+      <c r="G25">
+        <v>53795.46530612245</v>
+      </c>
+      <c r="H25">
+        <v>60765.50176429076</v>
+      </c>
+      <c r="I25">
+        <v>61002.80016515277</v>
+      </c>
+      <c r="J25">
+        <v>69066.94955964772</v>
+      </c>
+      <c r="K25">
+        <v>79781.51955867602</v>
+      </c>
+      <c r="L25">
+        <v>87325.96505823627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>29221.0325203252</v>
+      </c>
+      <c r="C26">
+        <v>29972.14029363785</v>
+      </c>
+      <c r="D26">
+        <v>28718.23533891851</v>
+      </c>
+      <c r="E26">
+        <v>28695.61977715878</v>
+      </c>
+      <c r="F26">
+        <v>30329.32126131752</v>
+      </c>
+      <c r="G26">
+        <v>30050.72992886179</v>
+      </c>
+      <c r="H26">
+        <v>32335.91375579598</v>
+      </c>
+      <c r="I26">
+        <v>35101.07921419518</v>
+      </c>
+      <c r="J26">
+        <v>39454.51074151074</v>
+      </c>
+      <c r="K26">
+        <v>44480.39132284134</v>
+      </c>
+      <c r="L26">
+        <v>48959.33957358294</v>
       </c>
     </row>
   </sheetData>
